--- a/examples/Canada OGD/wd/counters.xlsx
+++ b/examples/Canada OGD/wd/counters.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C329"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>

--- a/examples/Canada OGD/wd/counters.xlsx
+++ b/examples/Canada OGD/wd/counters.xlsx
@@ -377,7 +377,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -394,7 +394,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -411,7 +411,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -428,7 +428,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -445,7 +445,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -462,7 +462,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -513,7 +513,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -581,7 +581,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -666,7 +666,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -683,7 +683,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
@@ -717,7 +717,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -734,7 +734,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -751,7 +751,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -768,7 +768,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -819,7 +819,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -853,7 +853,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -870,7 +870,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -887,7 +887,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
@@ -904,7 +904,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -938,7 +938,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -972,7 +972,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -989,7 +989,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1006,7 +1006,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1023,7 +1023,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1040,7 +1040,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
@@ -1057,7 +1057,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -1074,7 +1074,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -1108,7 +1108,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1142,7 +1142,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1176,7 +1176,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1193,7 +1193,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1227,7 +1227,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1244,7 +1244,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -1278,7 +1278,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -1312,7 +1312,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -1329,7 +1329,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -1346,7 +1346,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -1363,7 +1363,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -1380,7 +1380,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -1397,7 +1397,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
@@ -1431,7 +1431,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -1448,7 +1448,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -1465,7 +1465,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -1482,7 +1482,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -1499,7 +1499,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -1516,7 +1516,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -1550,7 +1550,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -1567,7 +1567,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -1601,7 +1601,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -1618,7 +1618,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -1635,7 +1635,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
@@ -1652,7 +1652,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -1669,7 +1669,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -1686,7 +1686,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -1720,7 +1720,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
@@ -1771,7 +1771,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
@@ -1788,7 +1788,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
@@ -1805,7 +1805,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
@@ -1822,7 +1822,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
@@ -1856,7 +1856,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
@@ -1873,7 +1873,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
@@ -1890,7 +1890,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -1924,7 +1924,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -1941,7 +1941,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
@@ -1975,7 +1975,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -1992,7 +1992,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C97" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
@@ -2026,7 +2026,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -2043,7 +2043,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C100" t="inlineStr">
@@ -2060,7 +2060,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
@@ -2077,7 +2077,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
@@ -2094,7 +2094,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2111,7 +2111,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
@@ -2128,7 +2128,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
@@ -2145,7 +2145,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
@@ -2179,7 +2179,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
@@ -2196,7 +2196,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2213,7 +2213,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
@@ -2230,7 +2230,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
@@ -2247,7 +2247,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
@@ -2264,7 +2264,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
@@ -2281,7 +2281,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
@@ -2298,7 +2298,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -2315,7 +2315,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -2332,7 +2332,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -2349,7 +2349,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
@@ -2366,7 +2366,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
@@ -2400,7 +2400,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
@@ -2451,7 +2451,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
@@ -2485,7 +2485,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
@@ -2502,7 +2502,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -2519,7 +2519,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -2536,7 +2536,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
@@ -2553,7 +2553,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
@@ -2570,7 +2570,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
@@ -2587,7 +2587,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
@@ -2604,7 +2604,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
@@ -2621,7 +2621,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
@@ -2638,7 +2638,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
@@ -2655,7 +2655,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
@@ -2672,7 +2672,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
@@ -2689,7 +2689,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2706,7 +2706,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
@@ -2723,7 +2723,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -2740,7 +2740,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
@@ -2757,7 +2757,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2774,7 +2774,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -2791,7 +2791,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2808,7 +2808,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -2825,7 +2825,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -2842,7 +2842,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -2859,7 +2859,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -2876,7 +2876,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -2893,7 +2893,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -2910,7 +2910,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
@@ -2927,7 +2927,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -2961,7 +2961,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -2978,7 +2978,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -2995,7 +2995,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -3012,7 +3012,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -3029,7 +3029,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3046,7 +3046,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -3063,7 +3063,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -3114,7 +3114,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3131,7 +3131,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -3165,7 +3165,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
@@ -3182,7 +3182,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3199,7 +3199,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3216,7 +3216,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
@@ -3233,7 +3233,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -3250,7 +3250,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -3267,7 +3267,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -3284,7 +3284,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -3301,7 +3301,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -3318,7 +3318,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -3335,7 +3335,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
@@ -3352,7 +3352,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3369,7 +3369,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3403,7 +3403,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
@@ -3420,7 +3420,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
@@ -3437,7 +3437,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -3454,7 +3454,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3471,7 +3471,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
@@ -3488,7 +3488,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -3505,7 +3505,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
@@ -3522,7 +3522,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
@@ -3539,7 +3539,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3556,7 +3556,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -3573,7 +3573,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -3590,7 +3590,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
@@ -3607,7 +3607,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
@@ -3624,7 +3624,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -3641,7 +3641,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
@@ -3658,7 +3658,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
@@ -3675,7 +3675,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -3692,7 +3692,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -3726,7 +3726,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -3760,7 +3760,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -3777,7 +3777,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -3794,7 +3794,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -3811,7 +3811,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -3828,7 +3828,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -3845,7 +3845,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -3862,7 +3862,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -3879,7 +3879,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -3896,7 +3896,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -3930,7 +3930,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
@@ -3947,7 +3947,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -3964,7 +3964,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
@@ -3981,7 +3981,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -3998,7 +3998,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -4015,7 +4015,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
@@ -4032,7 +4032,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
@@ -4049,7 +4049,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
@@ -4066,7 +4066,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
@@ -4083,7 +4083,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
@@ -4100,7 +4100,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
@@ -4117,7 +4117,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
@@ -4134,7 +4134,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
@@ -4151,7 +4151,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
@@ -4168,7 +4168,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
@@ -4185,7 +4185,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
@@ -4202,7 +4202,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
@@ -4219,7 +4219,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
@@ -4270,7 +4270,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
@@ -4287,7 +4287,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
@@ -4304,7 +4304,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
@@ -4321,7 +4321,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
@@ -4338,7 +4338,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
@@ -4355,7 +4355,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
@@ -4372,7 +4372,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
@@ -4389,7 +4389,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
@@ -4423,7 +4423,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
@@ -4440,7 +4440,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
@@ -4457,7 +4457,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
@@ -4474,7 +4474,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
@@ -4491,7 +4491,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
@@ -4508,7 +4508,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
@@ -4525,7 +4525,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
@@ -4542,7 +4542,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
@@ -4576,7 +4576,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
@@ -4593,7 +4593,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
@@ -4610,7 +4610,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
@@ -4644,7 +4644,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
@@ -4661,7 +4661,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
@@ -4678,7 +4678,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
@@ -4695,7 +4695,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
@@ -4712,7 +4712,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
@@ -4729,7 +4729,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
@@ -4746,7 +4746,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
@@ -4763,7 +4763,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
@@ -4780,7 +4780,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
@@ -4797,7 +4797,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
@@ -4814,7 +4814,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
@@ -4831,7 +4831,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
@@ -4848,7 +4848,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
@@ -4865,7 +4865,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
@@ -4882,7 +4882,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
@@ -4899,7 +4899,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
@@ -4916,7 +4916,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Meta Compliance (field size)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
@@ -4933,7 +4933,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
@@ -4950,7 +4950,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
@@ -4967,7 +4967,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
@@ -4984,7 +4984,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
@@ -5001,7 +5001,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
@@ -5018,7 +5018,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
@@ -5035,7 +5035,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
@@ -5103,7 +5103,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
@@ -5137,7 +5137,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
@@ -5154,7 +5154,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
@@ -5188,7 +5188,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
@@ -5205,7 +5205,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
@@ -5222,7 +5222,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
@@ -5239,7 +5239,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
@@ -5256,7 +5256,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
@@ -5273,7 +5273,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
@@ -5290,7 +5290,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
@@ -5307,7 +5307,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
@@ -5324,7 +5324,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
@@ -5341,7 +5341,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
@@ -5358,7 +5358,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
@@ -5375,7 +5375,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
@@ -5392,7 +5392,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
@@ -5409,7 +5409,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
@@ -5426,7 +5426,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
@@ -5443,7 +5443,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
@@ -5460,7 +5460,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
@@ -5494,7 +5494,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
@@ -5511,7 +5511,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
@@ -5528,7 +5528,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
@@ -5545,7 +5545,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
@@ -5562,7 +5562,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5579,7 +5579,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5596,7 +5596,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5613,7 +5613,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
@@ -5630,7 +5630,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
@@ -5647,7 +5647,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
@@ -5664,7 +5664,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
@@ -5681,7 +5681,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
@@ -5698,7 +5698,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5715,7 +5715,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
@@ -5749,7 +5749,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
@@ -5766,7 +5766,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
@@ -5800,7 +5800,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
@@ -5817,7 +5817,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5834,7 +5834,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5851,7 +5851,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
@@ -5868,7 +5868,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
@@ -5885,7 +5885,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
@@ -5902,7 +5902,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
@@ -5919,7 +5919,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Completeness of Mandatory fields</t>
+          <t>Completeness of Mandatory Attributes</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
@@ -5936,7 +5936,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Meta Compliance (data type)</t>
+          <t>Metadata Compliance</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
